--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H2">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I2">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J2">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>6.475496450266665</v>
+        <v>2.08231712372</v>
       </c>
       <c r="R2">
-        <v>58.2794680524</v>
+        <v>18.74085411348</v>
       </c>
       <c r="S2">
-        <v>0.04588130689718681</v>
+        <v>0.01874818837274201</v>
       </c>
       <c r="T2">
-        <v>0.04588130689718682</v>
+        <v>0.01874818837274201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H3">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I3">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J3">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>16.15830126962667</v>
+        <v>4.861827078256666</v>
       </c>
       <c r="R3">
-        <v>145.42471142664</v>
+        <v>43.75644370431</v>
       </c>
       <c r="S3">
-        <v>0.1144875895126797</v>
+        <v>0.04377356784926987</v>
       </c>
       <c r="T3">
-        <v>0.1144875895126797</v>
+        <v>0.04377356784926987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H4">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I4">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J4">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>3.51399684328</v>
+        <v>1.547167744985</v>
       </c>
       <c r="R4">
-        <v>31.62597158952</v>
+        <v>13.924509704865</v>
       </c>
       <c r="S4">
-        <v>0.02489797791420856</v>
+        <v>0.01392995908105957</v>
       </c>
       <c r="T4">
-        <v>0.02489797791420856</v>
+        <v>0.01392995908105957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H5">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I5">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J5">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>10.08637688096</v>
+        <v>0.9808772179283333</v>
       </c>
       <c r="R5">
-        <v>90.77739192863999</v>
+        <v>8.827894961355</v>
       </c>
       <c r="S5">
-        <v>0.07146574115363127</v>
+        <v>0.008831349770297663</v>
       </c>
       <c r="T5">
-        <v>0.07146574115363127</v>
+        <v>0.008831349770297663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H6">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I6">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J6">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>2.338659093933333</v>
+        <v>0.7312317832916666</v>
       </c>
       <c r="R6">
-        <v>21.0479318454</v>
+        <v>6.581086049625</v>
       </c>
       <c r="S6">
-        <v>0.01657027170669415</v>
+        <v>0.006583661566782397</v>
       </c>
       <c r="T6">
-        <v>0.01657027170669415</v>
+        <v>0.006583661566782397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H7">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I7">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J7">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>3.571459701466667</v>
+        <v>0.7977526040183333</v>
       </c>
       <c r="R7">
-        <v>32.1431373132</v>
+        <v>7.179773436165</v>
       </c>
       <c r="S7">
-        <v>0.02530512369089158</v>
+        <v>0.007182583250461855</v>
       </c>
       <c r="T7">
-        <v>0.02530512369089159</v>
+        <v>0.007182583250461855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H8">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>8.982412793549999</v>
+        <v>16.90063798465333</v>
       </c>
       <c r="R8">
-        <v>80.84171514194999</v>
+        <v>152.10574186188</v>
       </c>
       <c r="S8">
-        <v>0.06364374395435164</v>
+        <v>0.1521652686550187</v>
       </c>
       <c r="T8">
-        <v>0.06364374395435164</v>
+        <v>0.1521652686550187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H9">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
-        <v>22.41380767652999</v>
+        <v>39.45987787240111</v>
       </c>
       <c r="R9">
-        <v>201.72426908877</v>
+        <v>355.13890085161</v>
       </c>
       <c r="S9">
-        <v>0.1588101849239753</v>
+        <v>0.355277884953247</v>
       </c>
       <c r="T9">
-        <v>0.1588101849239753</v>
+        <v>0.3552778849532469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H10">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>4.87440159129</v>
+        <v>12.55722371086833</v>
       </c>
       <c r="R10">
-        <v>43.86961432161</v>
+        <v>113.015013397815</v>
       </c>
       <c r="S10">
-        <v>0.03453695281400432</v>
+        <v>0.1130592419801272</v>
       </c>
       <c r="T10">
-        <v>0.03453695281400431</v>
+        <v>0.1130592419801272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H11">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>13.99120537428</v>
+        <v>7.961059619000555</v>
       </c>
       <c r="R11">
-        <v>125.92084836852</v>
+        <v>71.649536571005</v>
       </c>
       <c r="S11">
-        <v>0.09913290703950194</v>
+        <v>0.07167757671656255</v>
       </c>
       <c r="T11">
-        <v>0.09913290703950192</v>
+        <v>0.07167757671656254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H12">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>3.244044920174999</v>
+        <v>5.934871068152777</v>
       </c>
       <c r="R12">
-        <v>29.19640428157499</v>
+        <v>53.413839613375</v>
       </c>
       <c r="S12">
-        <v>0.02298526788084019</v>
+        <v>0.05343474319362443</v>
       </c>
       <c r="T12">
-        <v>0.02298526788084019</v>
+        <v>0.05343474319362442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H13">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>4.95411055515</v>
+        <v>6.474771689790555</v>
       </c>
       <c r="R13">
-        <v>44.58699499635</v>
+        <v>58.272945208115</v>
       </c>
       <c r="S13">
-        <v>0.03510172054438687</v>
+        <v>0.0582957504060814</v>
       </c>
       <c r="T13">
-        <v>0.03510172054438687</v>
+        <v>0.05829575040608138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H14">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>6.227699361543332</v>
+        <v>2.04008004472</v>
       </c>
       <c r="R14">
-        <v>56.04929425388999</v>
+        <v>18.36072040248</v>
       </c>
       <c r="S14">
-        <v>0.0441255721263838</v>
+        <v>0.01836790589588674</v>
       </c>
       <c r="T14">
-        <v>0.0441255721263838</v>
+        <v>0.01836790589588674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H15">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
-        <v>15.53997338633933</v>
+        <v>4.763211275673333</v>
       </c>
       <c r="R15">
-        <v>139.859760477054</v>
+        <v>42.86890148106</v>
       </c>
       <c r="S15">
-        <v>0.1101065059009319</v>
+        <v>0.04288567828513926</v>
       </c>
       <c r="T15">
-        <v>0.1101065059009319</v>
+        <v>0.04288567828513926</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H16">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>3.379527124358</v>
+        <v>1.51578547111</v>
       </c>
       <c r="R16">
-        <v>30.415744119222</v>
+        <v>13.64206923999</v>
       </c>
       <c r="S16">
-        <v>0.0239452098153264</v>
+        <v>0.01364740808271673</v>
       </c>
       <c r="T16">
-        <v>0.0239452098153264</v>
+        <v>0.01364740808271673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H17">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>9.700402640056</v>
+        <v>0.9609814066366666</v>
       </c>
       <c r="R17">
-        <v>87.30362376050398</v>
+        <v>8.648832659730001</v>
       </c>
       <c r="S17">
-        <v>0.06873096973690138</v>
+        <v>0.008652217392392457</v>
       </c>
       <c r="T17">
-        <v>0.06873096973690138</v>
+        <v>0.008652217392392456</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H18">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>2.249165891451666</v>
+        <v>0.7163997030833333</v>
       </c>
       <c r="R18">
-        <v>20.24249302306499</v>
+        <v>6.44759732775</v>
       </c>
       <c r="S18">
-        <v>0.01593617899738468</v>
+        <v>0.006450120603910864</v>
       </c>
       <c r="T18">
-        <v>0.01593617899738467</v>
+        <v>0.006450120603910863</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H19">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>3.434791057863333</v>
+        <v>0.7815712359766667</v>
       </c>
       <c r="R19">
-        <v>30.91311952077</v>
+        <v>7.03414112379</v>
       </c>
       <c r="S19">
-        <v>0.02433677539071939</v>
+        <v>0.00703689394467933</v>
       </c>
       <c r="T19">
-        <v>0.02433677539071939</v>
+        <v>0.007036893944679328</v>
       </c>
     </row>
   </sheetData>
